--- a/MTP_TEST_SHEET/CHOP_Plotly.xlsx
+++ b/MTP_TEST_SHEET/CHOP_Plotly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lollal\Documents\Katalon\V2_Visual_test\active-testing-v2\MTP_TEST_SHEET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F20D87D9-01C6-457F-A30A-3390C384613F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E16FF8-7620-4BD6-BC4C-7EB1E6670754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8C73F39A-3ACF-4FFF-9FFD-8C8386D2FFDE}"/>
   </bookViews>
@@ -1122,15 +1122,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A838B7AB-AA03-46A7-80A6-B16792F80A16}">
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C1112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="158.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.36328125" customWidth="1"/>
+    <col min="2" max="2" width="241.81640625" customWidth="1"/>
+    <col min="3" max="3" width="107.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -2387,122 +2389,3116 @@
         <v>229</v>
       </c>
     </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" s="1"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" s="1"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" s="1"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" s="1"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" s="1"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" s="1"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" s="1"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" s="1"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" s="1"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" s="1"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" s="1"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" s="1"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" s="1"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" s="1"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129" s="1"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130" s="1"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A131" s="1"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A132" s="1"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A133" s="1"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134" s="1"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135" s="1"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A136" s="1"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A137" s="1"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A138" s="1"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A139" s="1"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A140" s="1"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A141" s="1"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A142" s="1"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143" s="1"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A144" s="1"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145" s="1"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146" s="1"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147" s="1"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148" s="1"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149" s="1"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A150" s="1"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A151" s="1"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152" s="1"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153" s="1"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154" s="1"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155" s="1"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156" s="1"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A157" s="1"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A158" s="1"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A159" s="1"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A160" s="1"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A161" s="1"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A162" s="1"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A163" s="1"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A164" s="1"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A165" s="1"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A166" s="1"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A167" s="1"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A168" s="1"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A169" s="1"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A170" s="1"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A171" s="1"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A172" s="1"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A173" s="1"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A174" s="1"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A175" s="1"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A176" s="1"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A177" s="1"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A178" s="1"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A179" s="1"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A180" s="1"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A181" s="1"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A182" s="1"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A183" s="1"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A184" s="1"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A185" s="1"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A186" s="1"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A187" s="1"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A188" s="1"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A189" s="1"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A190" s="1"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A191" s="1"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A192" s="1"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A193" s="1"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A194" s="1"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A195" s="1"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A196" s="1"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A197" s="1"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A198" s="1"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A199" s="1"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A200" s="1"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A201" s="1"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A202" s="1"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A203" s="1"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A204" s="1"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A205" s="1"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A206" s="1"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A207" s="1"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A208" s="1"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A209" s="1"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A210" s="1"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A211" s="1"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A212" s="1"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A213" s="1"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A214" s="1"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A215" s="1"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A216" s="1"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A217" s="1"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A218" s="1"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A219" s="1"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A220" s="1"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A221" s="1"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A222" s="1"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A223" s="1"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A224" s="1"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A225" s="1"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A226" s="1"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A227" s="1"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A228" s="1"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A229" s="1"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A230" s="1"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A231" s="1"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A232" s="1"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A233" s="1"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A234" s="1"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A235" s="1"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A236" s="1"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A237" s="1"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A238" s="1"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A239" s="1"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A240" s="1"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A241" s="1"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A242" s="1"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A243" s="1"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A244" s="1"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A245" s="1"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A246" s="1"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A247" s="1"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A248" s="1"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A249" s="1"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A250" s="1"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A251" s="1"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A252" s="1"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A253" s="1"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A254" s="1"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A255" s="1"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A256" s="1"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A257" s="1"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A258" s="1"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A259" s="1"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A260" s="1"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A261" s="1"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A262" s="1"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A263" s="1"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A264" s="1"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A265" s="1"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A266" s="1"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A267" s="1"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A268" s="1"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A269" s="1"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A270" s="1"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A271" s="1"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A272" s="1"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A273" s="1"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A274" s="1"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A275" s="1"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A276" s="1"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A277" s="1"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A278" s="1"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A279" s="1"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A280" s="1"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A281" s="1"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A282" s="1"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A283" s="1"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A284" s="1"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A285" s="1"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A286" s="1"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A287" s="1"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A288" s="1"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A289" s="1"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A290" s="1"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A291" s="1"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A292" s="1"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A293" s="1"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A294" s="1"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A295" s="1"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A296" s="1"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A297" s="1"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A298" s="1"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A299" s="1"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A300" s="1"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A301" s="1"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A302" s="1"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A303" s="1"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A304" s="1"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A305" s="1"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A306" s="1"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A307" s="1"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A308" s="1"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A309" s="1"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A310" s="1"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A311" s="1"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A312" s="1"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A313" s="1"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A314" s="1"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A315" s="1"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A316" s="1"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A317" s="1"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A318" s="1"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A319" s="1"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A320" s="1"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A321" s="1"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A322" s="1"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A323" s="1"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A324" s="1"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A325" s="1"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A326" s="1"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A327" s="1"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A328" s="1"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A329" s="1"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A330" s="1"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A331" s="1"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A332" s="1"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A333" s="1"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A334" s="1"/>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A335" s="1"/>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A336" s="1"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A337" s="1"/>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A338" s="1"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A339" s="1"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A340" s="1"/>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A341" s="1"/>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A342" s="1"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A343" s="1"/>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A344" s="1"/>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A345" s="1"/>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A346" s="1"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A347" s="1"/>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A348" s="1"/>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A349" s="1"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A350" s="1"/>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A351" s="1"/>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A352" s="1"/>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A353" s="1"/>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A354" s="1"/>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A355" s="1"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A356" s="1"/>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A357" s="1"/>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A358" s="1"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A359" s="1"/>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A360" s="1"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A361" s="1"/>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A362" s="1"/>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A363" s="1"/>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A364" s="1"/>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A365" s="1"/>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A366" s="1"/>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A367" s="1"/>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A368" s="1"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A369" s="1"/>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A370" s="1"/>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A371" s="1"/>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A372" s="1"/>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A373" s="1"/>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A374" s="1"/>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A375" s="1"/>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A376" s="1"/>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A377" s="1"/>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A378" s="1"/>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A379" s="1"/>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A380" s="1"/>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A381" s="1"/>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A382" s="1"/>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A383" s="1"/>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A384" s="1"/>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A385" s="1"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A386" s="1"/>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A387" s="1"/>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A388" s="1"/>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A389" s="1"/>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A390" s="1"/>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A391" s="1"/>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A392" s="1"/>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A393" s="1"/>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A394" s="1"/>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A395" s="1"/>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A396" s="1"/>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A397" s="1"/>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A398" s="1"/>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A399" s="1"/>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A400" s="1"/>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A401" s="1"/>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A402" s="1"/>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A403" s="1"/>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A404" s="1"/>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A405" s="1"/>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A406" s="1"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A407" s="1"/>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A408" s="1"/>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A409" s="1"/>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A410" s="1"/>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A411" s="1"/>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A412" s="1"/>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A413" s="1"/>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A414" s="1"/>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A415" s="1"/>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A416" s="1"/>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A417" s="1"/>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A418" s="1"/>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A419" s="1"/>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A420" s="1"/>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A421" s="1"/>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A422" s="1"/>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A423" s="1"/>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A424" s="1"/>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A425" s="1"/>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A426" s="1"/>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A427" s="1"/>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A428" s="1"/>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A429" s="1"/>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A430" s="1"/>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A431" s="1"/>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A432" s="1"/>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A433" s="1"/>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A434" s="1"/>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A435" s="1"/>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A436" s="1"/>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A437" s="1"/>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A438" s="1"/>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A439" s="1"/>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A440" s="1"/>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A441" s="1"/>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A442" s="1"/>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A443" s="1"/>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A444" s="1"/>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A445" s="1"/>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A446" s="1"/>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A447" s="1"/>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A448" s="1"/>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A449" s="1"/>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A450" s="1"/>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A451" s="1"/>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A452" s="1"/>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A453" s="1"/>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A454" s="1"/>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A455" s="1"/>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A456" s="1"/>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A457" s="1"/>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A458" s="1"/>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A459" s="1"/>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A460" s="1"/>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A461" s="1"/>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A462" s="1"/>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A463" s="1"/>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A464" s="1"/>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A465" s="1"/>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A466" s="1"/>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A467" s="1"/>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A468" s="1"/>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A469" s="1"/>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A470" s="1"/>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A471" s="1"/>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A472" s="1"/>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A473" s="1"/>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A474" s="1"/>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A475" s="1"/>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A476" s="1"/>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A477" s="1"/>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A478" s="1"/>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A479" s="1"/>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A480" s="1"/>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A481" s="1"/>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A482" s="1"/>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A483" s="1"/>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A484" s="1"/>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A485" s="1"/>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A486" s="1"/>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A487" s="1"/>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A488" s="1"/>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A489" s="1"/>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A490" s="1"/>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A491" s="1"/>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A492" s="1"/>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A493" s="1"/>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A494" s="1"/>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A495" s="1"/>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A496" s="1"/>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A497" s="1"/>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A498" s="1"/>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A499" s="1"/>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A500" s="1"/>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A501" s="1"/>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A502" s="1"/>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A503" s="1"/>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A504" s="1"/>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A505" s="1"/>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A506" s="1"/>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A507" s="1"/>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A508" s="1"/>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A509" s="1"/>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A510" s="1"/>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A511" s="1"/>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A512" s="1"/>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A513" s="1"/>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A514" s="1"/>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A515" s="1"/>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A516" s="1"/>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A517" s="1"/>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A518" s="1"/>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A519" s="1"/>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A520" s="1"/>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A521" s="1"/>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A522" s="1"/>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A523" s="1"/>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A524" s="1"/>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A525" s="1"/>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A526" s="1"/>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A527" s="1"/>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A528" s="1"/>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A529" s="1"/>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A530" s="1"/>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A531" s="1"/>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A532" s="1"/>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A533" s="1"/>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A534" s="1"/>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A535" s="1"/>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A536" s="1"/>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A537" s="1"/>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A538" s="1"/>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A539" s="1"/>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A540" s="1"/>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A541" s="1"/>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A542" s="1"/>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A543" s="1"/>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A544" s="1"/>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A545" s="1"/>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A546" s="1"/>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A547" s="1"/>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A548" s="1"/>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A549" s="1"/>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A550" s="1"/>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A551" s="1"/>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A552" s="1"/>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A553" s="1"/>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A554" s="1"/>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A555" s="1"/>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A556" s="1"/>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A557" s="1"/>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A558" s="1"/>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A559" s="1"/>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A560" s="1"/>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A561" s="1"/>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A562" s="1"/>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A563" s="1"/>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A564" s="1"/>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A565" s="1"/>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A566" s="1"/>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A567" s="1"/>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A568" s="1"/>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A569" s="1"/>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A570" s="1"/>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A571" s="1"/>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A572" s="1"/>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A573" s="1"/>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A574" s="1"/>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A575" s="1"/>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A576" s="1"/>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A577" s="1"/>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A578" s="1"/>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A579" s="1"/>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A580" s="1"/>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A581" s="1"/>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A582" s="1"/>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A583" s="1"/>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A584" s="1"/>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A585" s="1"/>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A586" s="1"/>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A587" s="1"/>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A588" s="1"/>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A589" s="1"/>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A590" s="1"/>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A591" s="1"/>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A592" s="1"/>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A593" s="1"/>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A594" s="1"/>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A595" s="1"/>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A596" s="1"/>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A597" s="1"/>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A598" s="1"/>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A599" s="1"/>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A600" s="1"/>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A601" s="1"/>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A602" s="1"/>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A603" s="1"/>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A604" s="1"/>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A605" s="1"/>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A606" s="1"/>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A607" s="1"/>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A608" s="1"/>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A609" s="1"/>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A610" s="1"/>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A611" s="1"/>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A612" s="1"/>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A613" s="1"/>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A614" s="1"/>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A615" s="1"/>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A616" s="1"/>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A617" s="1"/>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A618" s="1"/>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A619" s="1"/>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A620" s="1"/>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A621" s="1"/>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A622" s="1"/>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A623" s="1"/>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A624" s="1"/>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A625" s="1"/>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A626" s="1"/>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A627" s="1"/>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A628" s="1"/>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A629" s="1"/>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A630" s="1"/>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A631" s="1"/>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A632" s="1"/>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A633" s="1"/>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A634" s="1"/>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A635" s="1"/>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A636" s="1"/>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A637" s="1"/>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A638" s="1"/>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A639" s="1"/>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A640" s="1"/>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A641" s="1"/>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A642" s="1"/>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A643" s="1"/>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A644" s="1"/>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A645" s="1"/>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A646" s="1"/>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A647" s="1"/>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A648" s="1"/>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A649" s="1"/>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A650" s="1"/>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A651" s="1"/>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A652" s="1"/>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A653" s="1"/>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A654" s="1"/>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A655" s="1"/>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A656" s="1"/>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A657" s="1"/>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A658" s="1"/>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A659" s="1"/>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A660" s="1"/>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A661" s="1"/>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A662" s="1"/>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A663" s="1"/>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A664" s="1"/>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A665" s="1"/>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A666" s="1"/>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A667" s="1"/>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A668" s="1"/>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A669" s="1"/>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A670" s="1"/>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A671" s="1"/>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A672" s="1"/>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A673" s="1"/>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A674" s="1"/>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A675" s="1"/>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A676" s="1"/>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A677" s="1"/>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A678" s="1"/>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A679" s="1"/>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A680" s="1"/>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A681" s="1"/>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A682" s="1"/>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A683" s="1"/>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A684" s="1"/>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A685" s="1"/>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A686" s="1"/>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A687" s="1"/>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A688" s="1"/>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A689" s="1"/>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A690" s="1"/>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A691" s="1"/>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A692" s="1"/>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A693" s="1"/>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A694" s="1"/>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A695" s="1"/>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A696" s="1"/>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A697" s="1"/>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A698" s="1"/>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A699" s="1"/>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A700" s="1"/>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A701" s="1"/>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A702" s="1"/>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A703" s="1"/>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A704" s="1"/>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A705" s="1"/>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A706" s="1"/>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A707" s="1"/>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A708" s="1"/>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A709" s="1"/>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A710" s="1"/>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A711" s="1"/>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A712" s="1"/>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A713" s="1"/>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A714" s="1"/>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A715" s="1"/>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A716" s="1"/>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A717" s="1"/>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A718" s="1"/>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A719" s="1"/>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A720" s="1"/>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A721" s="1"/>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A722" s="1"/>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A723" s="1"/>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A724" s="1"/>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A725" s="1"/>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A726" s="1"/>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A727" s="1"/>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A728" s="1"/>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A729" s="1"/>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A730" s="1"/>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A731" s="1"/>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A732" s="1"/>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A733" s="1"/>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A734" s="1"/>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A735" s="1"/>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A736" s="1"/>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A737" s="1"/>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A738" s="1"/>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A739" s="1"/>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A740" s="1"/>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A741" s="1"/>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A742" s="1"/>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A743" s="1"/>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A744" s="1"/>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A745" s="1"/>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A746" s="1"/>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A747" s="1"/>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A748" s="1"/>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A749" s="1"/>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A750" s="1"/>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A751" s="1"/>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A752" s="1"/>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A753" s="1"/>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A754" s="1"/>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A755" s="1"/>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A756" s="1"/>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A757" s="1"/>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A758" s="1"/>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A759" s="1"/>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A760" s="1"/>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A761" s="1"/>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A762" s="1"/>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A763" s="1"/>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A764" s="1"/>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A765" s="1"/>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A766" s="1"/>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A767" s="1"/>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A768" s="1"/>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A769" s="1"/>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A770" s="1"/>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A771" s="1"/>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A772" s="1"/>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A773" s="1"/>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A774" s="1"/>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A775" s="1"/>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A776" s="1"/>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A777" s="1"/>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A778" s="1"/>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A779" s="1"/>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A780" s="1"/>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A781" s="1"/>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A782" s="1"/>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A783" s="1"/>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A784" s="1"/>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A785" s="1"/>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A786" s="1"/>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A787" s="1"/>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A788" s="1"/>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A789" s="1"/>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A790" s="1"/>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A791" s="1"/>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A792" s="1"/>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A793" s="1"/>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A794" s="1"/>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A795" s="1"/>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A796" s="1"/>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A797" s="1"/>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A798" s="1"/>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A799" s="1"/>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A800" s="1"/>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A801" s="1"/>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A802" s="1"/>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A803" s="1"/>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A804" s="1"/>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A805" s="1"/>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A806" s="1"/>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A807" s="1"/>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A808" s="1"/>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A809" s="1"/>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A810" s="1"/>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A811" s="1"/>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A812" s="1"/>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A813" s="1"/>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A814" s="1"/>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A815" s="1"/>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A816" s="1"/>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A817" s="1"/>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A818" s="1"/>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A819" s="1"/>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A820" s="1"/>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A821" s="1"/>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A822" s="1"/>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A823" s="1"/>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A824" s="1"/>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A825" s="1"/>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A826" s="1"/>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A827" s="1"/>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A828" s="1"/>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A829" s="1"/>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A830" s="1"/>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A831" s="1"/>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A832" s="1"/>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A833" s="1"/>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A834" s="1"/>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A835" s="1"/>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A836" s="1"/>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A837" s="1"/>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A838" s="1"/>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A839" s="1"/>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A840" s="1"/>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A841" s="1"/>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A842" s="1"/>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A843" s="1"/>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A844" s="1"/>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A845" s="1"/>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A846" s="1"/>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A847" s="1"/>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A848" s="1"/>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A849" s="1"/>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A850" s="1"/>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A851" s="1"/>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A852" s="1"/>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A853" s="1"/>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A854" s="1"/>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A855" s="1"/>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A856" s="1"/>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A857" s="1"/>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A858" s="1"/>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A859" s="1"/>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A860" s="1"/>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A861" s="1"/>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A862" s="1"/>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A863" s="1"/>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A864" s="1"/>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A865" s="1"/>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A866" s="1"/>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A867" s="1"/>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A868" s="1"/>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A869" s="1"/>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A870" s="1"/>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A871" s="1"/>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A872" s="1"/>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A873" s="1"/>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A874" s="1"/>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A875" s="1"/>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A876" s="1"/>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A877" s="1"/>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A878" s="1"/>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A879" s="1"/>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A880" s="1"/>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A881" s="1"/>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A882" s="1"/>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A883" s="1"/>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A884" s="1"/>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A885" s="1"/>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A886" s="1"/>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A887" s="1"/>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A888" s="1"/>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A889" s="1"/>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A890" s="1"/>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A891" s="1"/>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A892" s="1"/>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A893" s="1"/>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A894" s="1"/>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A895" s="1"/>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A896" s="1"/>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A897" s="1"/>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A898" s="1"/>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A899" s="1"/>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A900" s="1"/>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A901" s="1"/>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A902" s="1"/>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A903" s="1"/>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A904" s="1"/>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A905" s="1"/>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A906" s="1"/>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A907" s="1"/>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A908" s="1"/>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A909" s="1"/>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A910" s="1"/>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A911" s="1"/>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A912" s="1"/>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A913" s="1"/>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A914" s="1"/>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A915" s="1"/>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A916" s="1"/>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A917" s="1"/>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A918" s="1"/>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A919" s="1"/>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A920" s="1"/>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A921" s="1"/>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A922" s="1"/>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A923" s="1"/>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A924" s="1"/>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A925" s="1"/>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A926" s="1"/>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A927" s="1"/>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A928" s="1"/>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A929" s="1"/>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A930" s="1"/>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A931" s="1"/>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A932" s="1"/>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A933" s="1"/>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A934" s="1"/>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A935" s="1"/>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A936" s="1"/>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A937" s="1"/>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A938" s="1"/>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A939" s="1"/>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A940" s="1"/>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A941" s="1"/>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A942" s="1"/>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A943" s="1"/>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A944" s="1"/>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A945" s="1"/>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A946" s="1"/>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A947" s="1"/>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A948" s="1"/>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A949" s="1"/>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A950" s="1"/>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A951" s="1"/>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A952" s="1"/>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A953" s="1"/>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A954" s="1"/>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A955" s="1"/>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A956" s="1"/>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A957" s="1"/>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A958" s="1"/>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A959" s="1"/>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A960" s="1"/>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A961" s="1"/>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A962" s="1"/>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A963" s="1"/>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A964" s="1"/>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A965" s="1"/>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A966" s="1"/>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A967" s="1"/>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A968" s="1"/>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A969" s="1"/>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A970" s="1"/>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A971" s="1"/>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A972" s="1"/>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A973" s="1"/>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A974" s="1"/>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A975" s="1"/>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A976" s="1"/>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A977" s="1"/>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A978" s="1"/>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A979" s="1"/>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A980" s="1"/>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A981" s="1"/>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A982" s="1"/>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A983" s="1"/>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A984" s="1"/>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A985" s="1"/>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A986" s="1"/>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A987" s="1"/>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A988" s="1"/>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A989" s="1"/>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A990" s="1"/>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A991" s="1"/>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A992" s="1"/>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A993" s="1"/>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A994" s="1"/>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A995" s="1"/>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A996" s="1"/>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A997" s="1"/>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A998" s="1"/>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A999" s="1"/>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1000" s="1"/>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1001" s="1"/>
+    </row>
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1002" s="1"/>
+    </row>
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1003" s="1"/>
+    </row>
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1004" s="1"/>
+    </row>
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1005" s="1"/>
+    </row>
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1006" s="1"/>
+    </row>
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1007" s="1"/>
+    </row>
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1008" s="1"/>
+    </row>
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1009" s="1"/>
+    </row>
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1010" s="1"/>
+    </row>
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1011" s="1"/>
+    </row>
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1012" s="1"/>
+    </row>
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1013" s="1"/>
+    </row>
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1014" s="1"/>
+    </row>
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1015" s="1"/>
+    </row>
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1016" s="1"/>
+    </row>
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1017" s="1"/>
+    </row>
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1018" s="1"/>
+    </row>
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1019" s="1"/>
+    </row>
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1020" s="1"/>
+    </row>
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1021" s="1"/>
+    </row>
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1022" s="1"/>
+    </row>
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1023" s="1"/>
+    </row>
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1024" s="1"/>
+    </row>
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1025" s="1"/>
+    </row>
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1026" s="1"/>
+    </row>
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1027" s="1"/>
+    </row>
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1028" s="1"/>
+    </row>
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1029" s="1"/>
+    </row>
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1030" s="1"/>
+    </row>
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1031" s="1"/>
+    </row>
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1032" s="1"/>
+    </row>
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1033" s="1"/>
+    </row>
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1034" s="1"/>
+    </row>
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1035" s="1"/>
+    </row>
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1036" s="1"/>
+    </row>
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1037" s="1"/>
+    </row>
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1038" s="1"/>
+    </row>
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1039" s="1"/>
+    </row>
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1040" s="1"/>
+    </row>
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1041" s="1"/>
+    </row>
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1042" s="1"/>
+    </row>
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1043" s="1"/>
+    </row>
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1044" s="1"/>
+    </row>
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1045" s="1"/>
+    </row>
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1046" s="1"/>
+    </row>
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1047" s="1"/>
+    </row>
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1048" s="1"/>
+    </row>
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1049" s="1"/>
+    </row>
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1050" s="1"/>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1051" s="1"/>
+    </row>
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1052" s="1"/>
+    </row>
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1053" s="1"/>
+    </row>
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1054" s="1"/>
+    </row>
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1055" s="1"/>
+    </row>
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1056" s="1"/>
+    </row>
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1057" s="1"/>
+    </row>
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1058" s="1"/>
+    </row>
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1059" s="1"/>
+    </row>
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1060" s="1"/>
+    </row>
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1061" s="1"/>
+    </row>
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1062" s="1"/>
+    </row>
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1063" s="1"/>
+    </row>
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1064" s="1"/>
+    </row>
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1065" s="1"/>
+    </row>
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1066" s="1"/>
+    </row>
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1067" s="1"/>
+    </row>
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1068" s="1"/>
+    </row>
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1069" s="1"/>
+    </row>
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1070" s="1"/>
+    </row>
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1071" s="1"/>
+    </row>
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1072" s="1"/>
+    </row>
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1073" s="1"/>
+    </row>
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1074" s="1"/>
+    </row>
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1075" s="1"/>
+    </row>
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1076" s="1"/>
+    </row>
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1077" s="1"/>
+    </row>
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1078" s="1"/>
+    </row>
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1079" s="1"/>
+    </row>
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1080" s="1"/>
+    </row>
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1081" s="1"/>
+    </row>
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1082" s="1"/>
+    </row>
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1083" s="1"/>
+    </row>
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1084" s="1"/>
+    </row>
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1085" s="1"/>
+    </row>
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1086" s="1"/>
+    </row>
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1087" s="1"/>
+    </row>
+    <row r="1088" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1088" s="1"/>
+    </row>
+    <row r="1089" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1089" s="1"/>
+    </row>
+    <row r="1090" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1090" s="1"/>
+    </row>
+    <row r="1091" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1091" s="1"/>
+    </row>
+    <row r="1092" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1092" s="1"/>
+    </row>
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1093" s="1"/>
+    </row>
+    <row r="1094" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1094" s="1"/>
+    </row>
+    <row r="1095" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1095" s="1"/>
+    </row>
+    <row r="1096" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1096" s="1"/>
+    </row>
+    <row r="1097" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1097" s="1"/>
+    </row>
+    <row r="1098" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1098" s="1"/>
+    </row>
+    <row r="1099" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1099" s="1"/>
+    </row>
+    <row r="1100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1100" s="1"/>
+    </row>
+    <row r="1101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1101" s="1"/>
+    </row>
+    <row r="1102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1102" s="1"/>
+    </row>
+    <row r="1103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1103" s="1"/>
+    </row>
+    <row r="1104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1104" s="1"/>
+    </row>
+    <row r="1105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1105" s="1"/>
+    </row>
+    <row r="1106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1106" s="1"/>
+    </row>
+    <row r="1107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1107" s="1"/>
+    </row>
+    <row r="1108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1108" s="1"/>
+    </row>
+    <row r="1109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1109" s="1"/>
+    </row>
+    <row r="1110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1110" s="1"/>
+    </row>
+    <row r="1111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1111" s="1"/>
+    </row>
+    <row r="1112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1112" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://openpedcan-api-qa.d3b.io/" xr:uid="{A4C711E4-6E94-4C29-8D05-A52F00D0AF57}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{8F7134DF-6EED-466B-A065-0EEC9B1AA3D7}"/>
-    <hyperlink ref="A3" r:id="rId3" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{1E866037-0A8A-4F67-8EE9-C3D4037E78F8}"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{96939369-4A67-4F9B-86C3-9DE424DD4A86}"/>
-    <hyperlink ref="A5" r:id="rId5" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{44B1FF26-A086-45D5-86A8-6333B9D42E63}"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{9B00DFED-F53B-490A-998E-DA2B820920B3}"/>
-    <hyperlink ref="A7" r:id="rId7" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{E4237AB5-68D1-407C-A8B4-6183D1086BCD}"/>
-    <hyperlink ref="A8" r:id="rId8" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{FD5A2D8E-6D83-428E-A8C1-90BFF8C212BF}"/>
-    <hyperlink ref="A9" r:id="rId9" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{4A8DB5DF-E773-4914-9445-99740F61D9F9}"/>
-    <hyperlink ref="A10" r:id="rId10" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{A0EBB2B0-157A-4CD6-98E4-3A0353A55E67}"/>
-    <hyperlink ref="A11" r:id="rId11" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{61214BA6-2DB9-49B4-88A0-AA95FD2A7266}"/>
-    <hyperlink ref="A12" r:id="rId12" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{50694629-61DB-4A70-AB1D-72FAD5D2BF6F}"/>
-    <hyperlink ref="A13" r:id="rId13" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{8AD4FF9D-082B-4944-B655-F5C5E14447B5}"/>
-    <hyperlink ref="A14" r:id="rId14" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{830C82BC-D786-484A-8643-090BDCD13779}"/>
-    <hyperlink ref="A15" r:id="rId15" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{A0C6ADB6-C11C-47DE-9D32-5910A533689D}"/>
-    <hyperlink ref="A16" r:id="rId16" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{2CC89A1A-CAD4-4029-BBF1-5C7562A0A5C1}"/>
-    <hyperlink ref="A17" r:id="rId17" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{4AEF9641-313E-4E55-A455-75D772E270B8}"/>
-    <hyperlink ref="A18" r:id="rId18" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{585F2863-F59D-4645-92D2-EE51E5C13B36}"/>
-    <hyperlink ref="A19" r:id="rId19" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{A0910B94-07CA-474D-8DE5-05735849A8AD}"/>
-    <hyperlink ref="A20" r:id="rId20" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{9B3C19C3-D8B8-4483-9F5B-8A013DDA46A9}"/>
-    <hyperlink ref="A21" r:id="rId21" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{43D76233-9A12-4141-A32F-6DB1BC90A16C}"/>
-    <hyperlink ref="A22" r:id="rId22" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{F3B5B7BF-AE0A-4C3E-AA49-C3E1A3B5437F}"/>
-    <hyperlink ref="A23" r:id="rId23" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{42E7FC18-0451-4818-A8A5-A5ED1A2243D1}"/>
-    <hyperlink ref="A24" r:id="rId24" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{B56310AA-7575-4E53-BB1F-5A1568A1D98D}"/>
-    <hyperlink ref="A25" r:id="rId25" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{89465B8A-CAF3-44AC-9203-71288630EDC8}"/>
-    <hyperlink ref="A26" r:id="rId26" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{122BB08B-2C07-43B9-AF17-B58F564420BF}"/>
-    <hyperlink ref="A27" r:id="rId27" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{446DF7C5-C039-42F2-8EEE-64A3E83F4037}"/>
-    <hyperlink ref="A28" r:id="rId28" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{D92C7E35-F8F2-46AB-A231-476DB334BA38}"/>
-    <hyperlink ref="A29" r:id="rId29" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{CB5C4932-8E60-4C5F-91EF-66C918889F9D}"/>
-    <hyperlink ref="A30" r:id="rId30" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{98A70BE7-F581-4FDA-9040-8642937E3A56}"/>
-    <hyperlink ref="A31" r:id="rId31" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{F0A93517-C1D0-493A-A72C-259FEEFA628C}"/>
-    <hyperlink ref="A32" r:id="rId32" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{6CD57039-40DA-4992-9D60-D8D6ED9BEAF5}"/>
-    <hyperlink ref="A33" r:id="rId33" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{78F8AB02-0F57-45CD-8F9C-3DD342553304}"/>
-    <hyperlink ref="A34" r:id="rId34" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{F45F4AE6-21C8-4858-B85F-293EC7941E8F}"/>
-    <hyperlink ref="A35" r:id="rId35" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{41E624B8-B675-494F-BE48-EE33A377E14D}"/>
-    <hyperlink ref="A36" r:id="rId36" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{2ABC1AA8-EBD0-49CE-9F1E-0CF1FC26AD15}"/>
-    <hyperlink ref="A37" r:id="rId37" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{4111C9D2-7169-47EA-AE69-2359DB899EA0}"/>
-    <hyperlink ref="A38" r:id="rId38" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{BE33939A-8408-40B9-AAAA-1A0A638C5147}"/>
-    <hyperlink ref="A39" r:id="rId39" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{F96B9F8D-02BF-4739-816A-CBF27C55A89D}"/>
-    <hyperlink ref="A40" r:id="rId40" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{B7CAC247-7CAC-4E10-9A08-FF6E33DF2ED9}"/>
-    <hyperlink ref="A41" r:id="rId41" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{0DBB1845-5474-4A6B-B176-053664CBEE6E}"/>
-    <hyperlink ref="A42" r:id="rId42" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{EA7E5A79-EC82-47E0-9BCC-A03B69BD57A5}"/>
-    <hyperlink ref="A43" r:id="rId43" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{107AB1A7-5CEE-4AE1-AB8D-D53CC1C26FE6}"/>
-    <hyperlink ref="A44" r:id="rId44" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{604C1BC8-DCA6-492B-9F37-363B96E338CA}"/>
-    <hyperlink ref="A45" r:id="rId45" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{169A98CD-D04E-4C9C-838F-2CBD7ADFF76E}"/>
-    <hyperlink ref="A46" r:id="rId46" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{C7B42D34-6E10-4E19-99C6-D1F51CF6B326}"/>
-    <hyperlink ref="A47" r:id="rId47" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{66C3F6EF-F613-4F2F-A643-4D9CB18AD1AB}"/>
-    <hyperlink ref="A48" r:id="rId48" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{3C282D27-89B0-4F08-AB0D-CD844603D59C}"/>
-    <hyperlink ref="A49" r:id="rId49" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{8D86825A-6FCE-469B-8F41-62E2DDD4F6F3}"/>
-    <hyperlink ref="A50" r:id="rId50" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{723C4AAE-FCD4-4EAD-9E07-272D52F544F9}"/>
-    <hyperlink ref="A51" r:id="rId51" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{7C6AD06A-155F-4AF7-8CBB-AFA7BB5D4E02}"/>
-    <hyperlink ref="A52" r:id="rId52" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{1DB81586-C29E-425A-A517-6C45500D92EA}"/>
-    <hyperlink ref="A53" r:id="rId53" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{6BB64259-0B8B-4D37-BB3B-6112EA86E921}"/>
-    <hyperlink ref="A54" r:id="rId54" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{052CC659-888D-4901-B1D8-B2F1F8ADF70D}"/>
-    <hyperlink ref="A55" r:id="rId55" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{4EFD2215-62E1-46D4-AF20-51CE55074BC3}"/>
-    <hyperlink ref="A56" r:id="rId56" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{08B0F4A9-EEE6-46BF-B5A6-095B99987282}"/>
-    <hyperlink ref="A57" r:id="rId57" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{C4DF15AA-0EA7-4C0B-8866-B8AE49F07111}"/>
-    <hyperlink ref="A58" r:id="rId58" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{04C26DB3-B1E2-4020-89F3-05D109E377C6}"/>
-    <hyperlink ref="A59" r:id="rId59" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{220957B6-1553-4D1E-8059-94507E15DE4E}"/>
-    <hyperlink ref="A60" r:id="rId60" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{74EC49BA-A5C5-481A-B28C-E00628E14955}"/>
-    <hyperlink ref="A61" r:id="rId61" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{E7A5F1FC-EED2-49A8-B67A-E1A8553BB7DB}"/>
-    <hyperlink ref="A62" r:id="rId62" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{20C22723-B4FE-43BC-88EF-41719761424B}"/>
-    <hyperlink ref="A63" r:id="rId63" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{7926D2ED-71A2-4272-860E-41640AFDD508}"/>
-    <hyperlink ref="A64" r:id="rId64" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{9E683D69-F490-4E10-9A25-6590FAD20C1A}"/>
-    <hyperlink ref="A65" r:id="rId65" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{5692DAEB-A8AB-406D-952E-3EAB3888383C}"/>
-    <hyperlink ref="A66" r:id="rId66" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{E69B9797-1933-4EC0-BA8C-F43AC2F5A660}"/>
-    <hyperlink ref="A67" r:id="rId67" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{33A62AD5-6950-4CCF-8B09-56AA95DA277B}"/>
-    <hyperlink ref="A68" r:id="rId68" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{781002D1-F02D-4551-B532-5813E51E8D7E}"/>
-    <hyperlink ref="A69" r:id="rId69" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{9BFCBAE7-A7D3-46D2-9108-F844C581E3BE}"/>
-    <hyperlink ref="A70" r:id="rId70" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{38340D09-6D1C-422E-956B-FA048364D9C3}"/>
-    <hyperlink ref="A71" r:id="rId71" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{922124DE-818B-4843-9FFC-8BB8B0DEEF45}"/>
-    <hyperlink ref="A72" r:id="rId72" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{F65B089D-905F-40AD-B2E8-427ECD43CA25}"/>
-    <hyperlink ref="A73" r:id="rId73" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{07E6AEAE-9096-423B-88C4-8B1593B8FD36}"/>
-    <hyperlink ref="A74" r:id="rId74" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{9474C913-A05F-4AF9-920C-32E8225C5D03}"/>
-    <hyperlink ref="A75" r:id="rId75" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{429C35A5-AF96-48F9-9CB3-3CEC2511C2B6}"/>
-    <hyperlink ref="A76" r:id="rId76" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{775EA62E-AAC2-4123-A835-718E69D0F2F4}"/>
-    <hyperlink ref="A77" r:id="rId77" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{CACFEC74-9393-4B21-9BB8-762B7C97CF7C}"/>
-    <hyperlink ref="A78" r:id="rId78" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{910E6E68-7348-4617-95BE-A4B321F14731}"/>
-    <hyperlink ref="A79" r:id="rId79" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{08EC6293-CFFB-4A22-A696-0671D4984270}"/>
-    <hyperlink ref="A80" r:id="rId80" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{096C8842-0DDA-417E-BCA7-95C64548B496}"/>
-    <hyperlink ref="A81" r:id="rId81" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{8FE411BA-3360-43BB-B693-5BA06D4AF1A3}"/>
-    <hyperlink ref="A82" r:id="rId82" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{B8760E40-977C-45A1-A339-3D86BAA69762}"/>
-    <hyperlink ref="A83" r:id="rId83" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{D9F08B85-C15A-40A5-B3FA-7F2EE8FEF559}"/>
-    <hyperlink ref="A84" r:id="rId84" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{BBF3C734-3F66-4C25-B02B-1BBFFBEA1609}"/>
-    <hyperlink ref="A85" r:id="rId85" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{798C51D7-E1AC-4F44-AA5F-5E30F03815FD}"/>
-    <hyperlink ref="A86" r:id="rId86" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{82381B6E-901A-4046-999F-0FCEA34C68F9}"/>
-    <hyperlink ref="A87" r:id="rId87" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{6D026B09-9C1F-4C28-9D7D-513FD59128AB}"/>
-    <hyperlink ref="A88" r:id="rId88" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{435AB89A-9ADA-4F77-9026-3271C908A383}"/>
-    <hyperlink ref="A89" r:id="rId89" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{33E2842E-696F-45B1-AE13-6BB5A99BBAB6}"/>
-    <hyperlink ref="A90" r:id="rId90" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{698C8D2A-7607-46F7-8B6D-57105A900317}"/>
-    <hyperlink ref="A91" r:id="rId91" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{8B83A168-36B7-447A-B1BA-0985F10F53D4}"/>
-    <hyperlink ref="A92" r:id="rId92" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{F7CE5197-E7D5-4310-8198-AA2228092B2F}"/>
-    <hyperlink ref="A93" r:id="rId93" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{D7F55349-3002-4508-9B55-D1BD51617451}"/>
-    <hyperlink ref="A94" r:id="rId94" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{8AF9C0B5-D89E-457D-8667-27648B9C5BFE}"/>
-    <hyperlink ref="A95" r:id="rId95" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{D41AA247-8044-48A1-A117-903F3CCC8AA0}"/>
-    <hyperlink ref="A96" r:id="rId96" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{43A09A27-4C59-4BEA-9533-03CCEE6F8782}"/>
-    <hyperlink ref="A97" r:id="rId97" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{037077AD-4489-4A9B-B15E-24738EF762AC}"/>
-    <hyperlink ref="A98" r:id="rId98" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{AD5B2F70-618A-4C90-8CC1-E369D052A68F}"/>
-    <hyperlink ref="A99" r:id="rId99" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{76C3E5E5-79AA-44A5-A7EA-6457E1F3D16D}"/>
-    <hyperlink ref="A100" r:id="rId100" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{5C66A04C-3295-4964-99DB-8FB2DF033605}"/>
-    <hyperlink ref="A101" r:id="rId101" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{F3657254-8982-418E-B3DB-8732BD1D4850}"/>
-    <hyperlink ref="A102" r:id="rId102" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{BD9D58C4-A567-42CE-B1FA-88B60F59EB23}"/>
-    <hyperlink ref="A103" r:id="rId103" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{F5ECFE51-2ADC-485A-8AEC-6305621BA6B9}"/>
-    <hyperlink ref="A104" r:id="rId104" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{18358EDB-BD5D-4AF4-84E5-089B85A8BE0E}"/>
-    <hyperlink ref="A105" r:id="rId105" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{DE496262-F95A-4389-A464-48FF88B3E7D7}"/>
-    <hyperlink ref="A106" r:id="rId106" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{76BD2DB6-0A16-48B2-B321-23BC5EB3C6E0}"/>
-    <hyperlink ref="A107" r:id="rId107" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{6D9859C0-8D98-411F-9710-F20C29CE5037}"/>
-    <hyperlink ref="A108" r:id="rId108" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{9AA1FEAD-18DA-4B00-A4A9-E7CF35EBD45F}"/>
-    <hyperlink ref="A109" r:id="rId109" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{F14AEE70-4BA7-47C3-B6E4-C6671D0801A7}"/>
-    <hyperlink ref="A110" r:id="rId110" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{30B9158C-8AA3-44CC-A7B5-2CF196031A1D}"/>
-    <hyperlink ref="A111" r:id="rId111" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{197CEB29-75F9-4A1F-8BB3-E02DFA8A2337}"/>
-    <hyperlink ref="A112" r:id="rId112" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{9F3B952A-3B5E-4B23-BDD9-26D20F01E8F8}"/>
-    <hyperlink ref="A113" r:id="rId113" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{4CCEFC30-917D-4A85-B5CA-669D17FD605B}"/>
-    <hyperlink ref="A114" r:id="rId114" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{D6095F46-F100-4122-B9EE-0C41EED4ED7A}"/>
+    <hyperlink ref="A1" r:id="rId1" display="https://openpedcan-api-qa.d3b.io/" xr:uid="{A51D5342-4DC8-434F-9FA0-5CA616E649F0}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{488D886F-EBBF-4B7D-BA13-324887E86BE8}"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{4E92930C-476A-482F-8725-DDBACB77713E}"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{E390A7AF-B35E-490B-8AB0-6E73E22DBDE6}"/>
+    <hyperlink ref="A5" r:id="rId5" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{8AB737EE-45BF-4848-A8C6-FE1DC0A3F4F3}"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{705C1D13-6A03-4533-BB1C-CF48377DE6A3}"/>
+    <hyperlink ref="A7" r:id="rId7" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{33A9C17D-D348-41B1-A984-57099DCEC568}"/>
+    <hyperlink ref="A8" r:id="rId8" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{10833550-A682-4766-B7AE-8A0C83DF3BE7}"/>
+    <hyperlink ref="A9" r:id="rId9" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{A1075556-EE51-4F09-A4B2-AF41BFC8BEC3}"/>
+    <hyperlink ref="A10" r:id="rId10" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{05098F5B-09EB-4F01-B9B2-6EC5BF76CE95}"/>
+    <hyperlink ref="A11" r:id="rId11" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{4564A51D-3B50-473D-AA0A-2B976319825A}"/>
+    <hyperlink ref="A12" r:id="rId12" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{B174DAB9-FD01-4CDF-9026-D5BD0122AA03}"/>
+    <hyperlink ref="A13" r:id="rId13" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{BBC92BCF-3269-4D7C-9F4D-A0E80E663782}"/>
+    <hyperlink ref="A14" r:id="rId14" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{5DBF7DF2-1A92-403A-8A75-0B3551FF2550}"/>
+    <hyperlink ref="A15" r:id="rId15" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{132622E4-0735-4E18-9679-6B22305319CA}"/>
+    <hyperlink ref="A16" r:id="rId16" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{86C3520D-3F86-46CD-9558-7C0F55DB60A8}"/>
+    <hyperlink ref="A17" r:id="rId17" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{1BC6EE63-E000-4CF8-B744-0E8D5267A4CF}"/>
+    <hyperlink ref="A18" r:id="rId18" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{5E2BF71C-BA8C-46FC-8990-B51641CC1C1B}"/>
+    <hyperlink ref="A19" r:id="rId19" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{C504C86C-FA94-43AA-BEB4-86755A4915BC}"/>
+    <hyperlink ref="A20" r:id="rId20" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{97F1C673-988E-4CA1-88F0-13607D7C8634}"/>
+    <hyperlink ref="A21" r:id="rId21" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{447144C0-4C8F-424D-8C45-4CB70D9F6231}"/>
+    <hyperlink ref="A22" r:id="rId22" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{A801AED0-0C92-4D43-9CD8-8FA3ECF46205}"/>
+    <hyperlink ref="A23" r:id="rId23" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{B6022AF0-F839-4882-9152-F6E0F40DA186}"/>
+    <hyperlink ref="A24" r:id="rId24" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{BDADB7FF-085F-4161-9B47-CDBE7686C245}"/>
+    <hyperlink ref="A25" r:id="rId25" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{4B395E61-6F9A-4135-A7E8-E176EC5EB719}"/>
+    <hyperlink ref="A26" r:id="rId26" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{9588CEC1-B79D-4824-985D-A0F1CFCF6814}"/>
+    <hyperlink ref="A27" r:id="rId27" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{6FAD12A7-D1DE-4C2A-83BC-4253FC6A9D72}"/>
+    <hyperlink ref="A28" r:id="rId28" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{31FF3480-0D5F-4615-BD47-80234F6DD99B}"/>
+    <hyperlink ref="A29" r:id="rId29" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{06DC8D94-4FC8-47FA-8A75-91843E75FC04}"/>
+    <hyperlink ref="A30" r:id="rId30" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{95DC91FA-8B9F-4C41-B8CD-3FEDFF8E0148}"/>
+    <hyperlink ref="A31" r:id="rId31" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{7589432A-294A-4BA5-B158-C29626D2BCD2}"/>
+    <hyperlink ref="A32" r:id="rId32" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{F4FDB75B-31F3-43A8-B506-D8330592FAA5}"/>
+    <hyperlink ref="A33" r:id="rId33" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{D15CFBC8-FBA1-4FF4-AF9D-AD5D88B46D9D}"/>
+    <hyperlink ref="A34" r:id="rId34" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{1F71CB05-D0A2-450E-8C8C-617F6598F278}"/>
+    <hyperlink ref="A35" r:id="rId35" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{658F2453-E5C2-47C8-BE1C-92310346118B}"/>
+    <hyperlink ref="A36" r:id="rId36" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{89477222-43C1-45AF-91F8-DF72131F9832}"/>
+    <hyperlink ref="A37" r:id="rId37" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{7EC8B15A-17F5-446A-A06B-9164CF0B47FD}"/>
+    <hyperlink ref="A38" r:id="rId38" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{CFCC1306-C9A3-4DF6-9CD7-24EC72A1311C}"/>
+    <hyperlink ref="A39" r:id="rId39" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{D2850454-80B0-409B-BBAC-1ECB90B599A4}"/>
+    <hyperlink ref="A40" r:id="rId40" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{FBF6F626-E935-4BA9-AE76-4746BFCAAB86}"/>
+    <hyperlink ref="A41" r:id="rId41" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{4102DB62-9CB4-42DD-8FEB-2E3A4C9719E3}"/>
+    <hyperlink ref="A42" r:id="rId42" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{8371ADD5-D2A7-4BCA-AEC7-4D209572B1B7}"/>
+    <hyperlink ref="A43" r:id="rId43" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{D0645374-71A8-47FE-AF1E-760A26E4D9B2}"/>
+    <hyperlink ref="A44" r:id="rId44" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{C84C5D11-8E3C-4D13-88EC-EE1737D5367C}"/>
+    <hyperlink ref="A45" r:id="rId45" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{CFF9A163-B38C-4750-BCB5-92C86788A5EA}"/>
+    <hyperlink ref="A46" r:id="rId46" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{7BEAABD8-6CF1-4217-BCB5-76AEF6320ADC}"/>
+    <hyperlink ref="A47" r:id="rId47" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{AAEC928A-42CD-4731-A1A7-27CCB1DCE623}"/>
+    <hyperlink ref="A48" r:id="rId48" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{BA0E1908-9ACD-40DC-AF17-892225AFEFAB}"/>
+    <hyperlink ref="A49" r:id="rId49" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{512AD5AD-64E8-4E09-B209-689B638137BC}"/>
+    <hyperlink ref="A50" r:id="rId50" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{1F4445FD-3882-4028-B822-7884CB197CA5}"/>
+    <hyperlink ref="A51" r:id="rId51" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{6142FDD4-C456-4090-B0C4-94BDCC282BD7}"/>
+    <hyperlink ref="A52" r:id="rId52" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{51679037-689D-4293-A564-9B47C76C0B67}"/>
+    <hyperlink ref="A53" r:id="rId53" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{0C466F93-F3CE-4FF9-B902-B2009B25B959}"/>
+    <hyperlink ref="A54" r:id="rId54" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{6319880B-A5CC-4163-BFC8-8240E2B68DE9}"/>
+    <hyperlink ref="A55" r:id="rId55" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{B5954836-1279-4905-ABC7-7C00FDAEE622}"/>
+    <hyperlink ref="A56" r:id="rId56" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{D98504BC-D154-41CD-8198-BE99DDBF9ED2}"/>
+    <hyperlink ref="A57" r:id="rId57" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{D204CBCE-26E7-4A28-A310-1AC7FA49DAB2}"/>
+    <hyperlink ref="A58" r:id="rId58" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{64C2EFF1-28A9-4C13-B16E-824DF437B257}"/>
+    <hyperlink ref="A59" r:id="rId59" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{67C136BB-ED3B-425C-8C67-53CF02F4EF74}"/>
+    <hyperlink ref="A60" r:id="rId60" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{74129592-3D49-4238-B4BF-06FD00DEE049}"/>
+    <hyperlink ref="A61" r:id="rId61" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{0FFAA4A2-CE1D-4FBB-8DFA-58F2AFAF7DBE}"/>
+    <hyperlink ref="A62" r:id="rId62" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{23EB39F4-0A4E-4F87-8D4D-C78376CAEF39}"/>
+    <hyperlink ref="A63" r:id="rId63" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{CD0813C1-4EDE-47A3-8797-A826F0E16BAA}"/>
+    <hyperlink ref="A64" r:id="rId64" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{75C81D8B-DCFF-4BDF-B0C3-D42A38139611}"/>
+    <hyperlink ref="A65" r:id="rId65" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{928A4C6D-0E41-4EC3-A4B7-135716852144}"/>
+    <hyperlink ref="A66" r:id="rId66" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{42A6E5DD-3DEF-45A4-8FD1-3C3D833437DB}"/>
+    <hyperlink ref="A67" r:id="rId67" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{13E56D03-0748-431A-8410-ABFEAAAB6CF4}"/>
+    <hyperlink ref="A68" r:id="rId68" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{E1B23050-07A9-46E5-8033-6184ED3AA3AF}"/>
+    <hyperlink ref="A69" r:id="rId69" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{37D7F7DC-242D-4783-B2A5-78624D133C4B}"/>
+    <hyperlink ref="A70" r:id="rId70" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{AEA17B67-AB55-4451-882F-DC4E1C11F304}"/>
+    <hyperlink ref="A71" r:id="rId71" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{A46DCE6F-EF0E-45C4-9299-E38F158DC3C1}"/>
+    <hyperlink ref="A72" r:id="rId72" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{73DC10AA-F06E-40F3-B5A7-AB444BD2C8DA}"/>
+    <hyperlink ref="A73" r:id="rId73" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{55289D74-F38A-498D-A4A7-D95E682182F4}"/>
+    <hyperlink ref="A74" r:id="rId74" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{5A7F5C45-0AA7-4FA2-9D3E-7E841AC7DC89}"/>
+    <hyperlink ref="A75" r:id="rId75" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{6ABA2FE0-D66E-416C-BF90-BEEC4AB913E1}"/>
+    <hyperlink ref="A76" r:id="rId76" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{3CFCE875-1FE0-4AD6-B9EE-066A40E6AB24}"/>
+    <hyperlink ref="A77" r:id="rId77" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{AB110EF6-56C2-4673-A7CC-3F1381C50A41}"/>
+    <hyperlink ref="A78" r:id="rId78" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{F1711F63-7662-43CE-913E-8D4C2C57FCCE}"/>
+    <hyperlink ref="A79" r:id="rId79" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{125302A3-3348-4686-B057-5A0751926DC3}"/>
+    <hyperlink ref="A80" r:id="rId80" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{40A5C559-9741-469C-B24B-2CD1C3678605}"/>
+    <hyperlink ref="A81" r:id="rId81" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{A120F8EF-556E-4AB5-A261-D6C60783BF0A}"/>
+    <hyperlink ref="A82" r:id="rId82" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{BE5DDEF1-A865-4258-A381-62FC68ABFF0D}"/>
+    <hyperlink ref="A83" r:id="rId83" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{354B8064-2A51-4551-82A2-3EF7833B9516}"/>
+    <hyperlink ref="A84" r:id="rId84" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{3F5F1175-CA54-493D-AFB3-32F74449F435}"/>
+    <hyperlink ref="A85" r:id="rId85" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{3E53BCA2-E9AB-4C58-A58D-E9FCC26906B1}"/>
+    <hyperlink ref="A86" r:id="rId86" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{97B4E73A-2937-4D4F-B5DB-8771594E6E94}"/>
+    <hyperlink ref="A87" r:id="rId87" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{ABA7EB55-7856-4A12-A5C8-8F204857F843}"/>
+    <hyperlink ref="A88" r:id="rId88" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{BE9EE8CE-34B3-4FEB-A071-365730C45769}"/>
+    <hyperlink ref="A89" r:id="rId89" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{726B0D8D-5D4F-4D06-BD89-E4D536784654}"/>
+    <hyperlink ref="A90" r:id="rId90" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{C7B27EBE-861F-4FFE-8E78-61A9BE42F9FD}"/>
+    <hyperlink ref="A91" r:id="rId91" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{C45C08F8-EDFE-4C88-A178-DC0195ACE40A}"/>
+    <hyperlink ref="A92" r:id="rId92" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{C2D2D6DB-27D8-41A0-ABB7-052183B642B8}"/>
+    <hyperlink ref="A93" r:id="rId93" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{43DB2282-EC7B-45BA-AC47-3324E89389E4}"/>
+    <hyperlink ref="A94" r:id="rId94" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{CF5B67D7-E427-4D19-90C5-1755143DEAF0}"/>
+    <hyperlink ref="A95" r:id="rId95" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{84DD17E1-1B0B-4B62-A814-031662BCE589}"/>
+    <hyperlink ref="A96" r:id="rId96" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{9319DB25-836F-430D-AB9C-52DEB5A109EF}"/>
+    <hyperlink ref="A97" r:id="rId97" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{66CD304E-0935-4388-B469-C7E9F308562E}"/>
+    <hyperlink ref="A98" r:id="rId98" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{631B5E8F-0DCE-449C-9EC8-3F538FA9FBD4}"/>
+    <hyperlink ref="A99" r:id="rId99" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{87631A5E-1CB4-4C89-8BE7-96F6827C93E9}"/>
+    <hyperlink ref="A100" r:id="rId100" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{8DC25B81-EF6B-46DF-8DDF-BF6E96283EF9}"/>
+    <hyperlink ref="A101" r:id="rId101" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{3607208F-E5D2-4499-AA3C-6706F7EA9AE7}"/>
+    <hyperlink ref="A102" r:id="rId102" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{28522B73-174E-44B2-AD8C-2FAA86ED9C26}"/>
+    <hyperlink ref="A103" r:id="rId103" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{32CBE2A6-74FF-4263-AD28-9677D312E921}"/>
+    <hyperlink ref="A104" r:id="rId104" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{1F75B18B-DF02-4F87-98BE-C4D1DA8BABFB}"/>
+    <hyperlink ref="A105" r:id="rId105" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{C806D4EF-6D44-4205-976C-5349059FB3C0}"/>
+    <hyperlink ref="A106" r:id="rId106" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{E5E47522-96FB-4EC0-A83C-EEE0795948A4}"/>
+    <hyperlink ref="A107" r:id="rId107" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{722893E7-6E4E-402D-8EC3-FDAB942A5456}"/>
+    <hyperlink ref="A108" r:id="rId108" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{BD9F9C9E-2F90-4ACB-8FC4-282BAA8D188A}"/>
+    <hyperlink ref="A109" r:id="rId109" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{1F72C5A2-BDEB-4D0B-9502-AE53AB576258}"/>
+    <hyperlink ref="A110" r:id="rId110" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{84B505BF-8298-41F1-9FE6-A26AC4E2E9FD}"/>
+    <hyperlink ref="A111" r:id="rId111" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{E7249D2A-3E3F-4E18-BF6E-1A932A2E72BB}"/>
+    <hyperlink ref="A112" r:id="rId112" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{07CBAC84-45C5-43E3-A542-E8B6EF61795A}"/>
+    <hyperlink ref="A113" r:id="rId113" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{008FBB57-896D-43DA-ADBA-04454C3B90A9}"/>
+    <hyperlink ref="A114" r:id="rId114" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{15A0B354-03D5-46CE-8BB2-03397A577548}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
